--- a/groupe_semaine_Emploi.xlsx
+++ b/groupe_semaine_Emploi.xlsx
@@ -30,18 +30,12 @@
       <sz val="14"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
-        <bgColor rgb="00FFFF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -86,12 +80,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -481,7 +474,7 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>Semaine 2020-09-14 00:00:00</t>
+          <t>Semaine 2020-10-19 00:00:00</t>
         </is>
       </c>
     </row>
@@ -504,11 +497,6 @@
           <t>10h-12h</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">administration du reseaux,saedbouh,emphie </t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n"/>
@@ -561,11 +549,6 @@
           <t>12h-14h</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">JEE,moussa demba,emphie </t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n"/>
@@ -654,11 +637,6 @@
           <t>12h-14h</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Progiciel ERP,hafedh sidi,emphie </t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n"/>
@@ -667,11 +645,6 @@
           <t>14h-16h</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">administration du reseaux,saedbouh,emphie </t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n"/>
@@ -698,11 +671,6 @@
       <c r="B23" s="3" t="inlineStr">
         <is>
           <t>10h-12h</t>
-        </is>
-      </c>
-      <c r="C23" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Progiciel ERP,hafedh sidi,emphie </t>
         </is>
       </c>
     </row>

--- a/groupe_semaine_Emploi.xlsx
+++ b/groupe_semaine_Emploi.xlsx
@@ -474,7 +474,7 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>Semaine 2020-10-19 00:00:00</t>
+          <t>Semaine 2020-11-09 00:00:00</t>
         </is>
       </c>
     </row>
